--- a/small.xlsx
+++ b/small.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HDULAB601\Desktop\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0671F9F8-FE72-4048-805E-BDC8FF0FB2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE343AF-FF1C-44DF-A3E0-2A472545E5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -962,10 +962,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -996,10 +992,13 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>AB</t>
     </r>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1468,7 +1467,7 @@
   <dimension ref="A1:F222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2448,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2930,7 +2929,7 @@
         <v>303</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2995,7 +2994,7 @@
         <v>303</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4301,7 +4300,7 @@
         <v>303</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4349,7 +4348,7 @@
         <v>303</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -4718,7 +4717,7 @@
         <v>303</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="13" x14ac:dyDescent="0.25">
@@ -4738,7 +4737,7 @@
         <v>303</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
